--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03417B6B-C304-49EC-9EF6-2F976C202CFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F440D8-9F6E-924F-B3B2-B79849599369}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>J</t>
   </si>
@@ -38,6 +43,12 @@
   </si>
   <si>
     <t>ESQUERDA</t>
+  </si>
+  <si>
+    <t>Probs</t>
+  </si>
+  <si>
+    <t>0/14</t>
   </si>
 </sst>
 </file>
@@ -340,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +397,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,20 +686,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R41"/>
+  <dimension ref="B2:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
@@ -705,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -739,30 +763,30 @@
       </c>
       <c r="M4">
         <f t="shared" ref="M4:R10" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -792,15 +816,15 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L10" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -808,7 +832,7 @@
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
@@ -819,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>3</v>
       </c>
@@ -846,11 +870,11 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -858,22 +882,22 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -900,34 +924,34 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -954,7 +978,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
@@ -962,15 +986,15 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
@@ -981,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>6</v>
       </c>
@@ -1008,23 +1032,23 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
@@ -1032,10 +1056,10 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -1070,7 +1094,7 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
@@ -1078,26 +1102,26 @@
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
@@ -1122,8 +1146,32 @@
       <c r="I14" s="22">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="20">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21">
+        <v>2</v>
+      </c>
+      <c r="O14" s="21">
+        <v>3</v>
+      </c>
+      <c r="P14" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>5</v>
+      </c>
+      <c r="R14" s="21">
+        <v>6</v>
+      </c>
+      <c r="S14" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="17">
         <v>1</v>
       </c>
@@ -1148,8 +1196,32 @@
       <c r="I15" s="12">
         <v>99999</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L15" s="17">
+        <v>1</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O15" s="26">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P15" s="26">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="S15" s="27">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -1174,8 +1246,32 @@
       <c r="I16" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L16" s="18">
+        <v>2</v>
+      </c>
+      <c r="M16" s="28">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O16" s="29">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="29">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="S16" s="30">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="18">
         <v>3</v>
       </c>
@@ -1200,8 +1296,32 @@
       <c r="I17" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="18">
+        <v>3</v>
+      </c>
+      <c r="M17" s="28">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="O17" s="29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P17" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R17" s="29">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="S17" s="30">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="18">
         <v>4</v>
       </c>
@@ -1226,8 +1346,32 @@
       <c r="I18" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L18" s="18">
+        <v>4</v>
+      </c>
+      <c r="M18" s="28">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O18" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="29">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="S18" s="30">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="18">
         <v>5</v>
       </c>
@@ -1252,8 +1396,32 @@
       <c r="I19" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L19" s="18">
+        <v>5</v>
+      </c>
+      <c r="M19" s="28">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="29">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P19" s="29">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R19" s="29">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="S19" s="30">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="18">
         <v>6</v>
       </c>
@@ -1278,8 +1446,32 @@
       <c r="I20" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="18">
+        <v>6</v>
+      </c>
+      <c r="M20" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="29">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O20" s="29">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="P20" s="29">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="R20" s="29">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="S20" s="30">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19">
         <v>7</v>
       </c>
@@ -1304,13 +1496,37 @@
       <c r="I21" s="7">
         <v>99999</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="19">
+        <v>7</v>
+      </c>
+      <c r="M21" s="31">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N21" s="32">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="O21" s="32">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P21" s="32">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R21" s="32">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="17">
         <v>1</v>
       </c>
@@ -1362,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="18">
         <v>2</v>
       </c>
@@ -1388,7 +1604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="18">
         <v>3</v>
       </c>
@@ -1414,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="18">
         <v>4</v>
       </c>
@@ -1440,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="18">
         <v>5</v>
       </c>
@@ -1466,7 +1682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="18">
         <v>6</v>
       </c>
@@ -1492,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
         <v>7</v>
       </c>
@@ -1518,12 +1734,12 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
@@ -1549,7 +1765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="17">
         <v>1</v>
       </c>
@@ -1575,7 +1791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="18">
         <v>2</v>
       </c>
@@ -1601,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="18">
         <v>3</v>
       </c>
@@ -1627,7 +1843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="18">
         <v>4</v>
       </c>
@@ -1653,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="18">
         <v>5</v>
       </c>
@@ -1679,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="18">
         <v>6</v>
       </c>
@@ -1705,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="19">
         <v>7</v>
       </c>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03417B6B-C304-49EC-9EF6-2F976C202CFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E59AA6-8F34-4978-A83B-96FBF18C7CB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,20 +666,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R41"/>
+  <dimension ref="B2:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -735,15 +735,15 @@
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:R10" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
@@ -751,7 +751,7 @@
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
@@ -759,10 +759,10 @@
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -792,15 +792,15 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L10" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -812,14 +812,14 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>3</v>
       </c>
@@ -846,7 +846,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
@@ -854,15 +854,15 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
@@ -870,10 +870,10 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -900,11 +900,11 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
@@ -912,22 +912,22 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -954,11 +954,11 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
@@ -966,11 +966,11 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>6</v>
       </c>
@@ -1008,19 +1008,19 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
@@ -1028,14 +1028,14 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -1066,15 +1066,15 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
@@ -1082,22 +1082,43 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
@@ -1122,8 +1143,19 @@
       <c r="I14" s="22">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>L14*$M$13</f>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f>L14*$N$13</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <v>1</v>
       </c>
@@ -1148,8 +1180,19 @@
       <c r="I15" s="12">
         <v>99999</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M20" si="2">L15*$M$13</f>
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N20" si="3">L15*$N$13</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -1174,8 +1217,19 @@
       <c r="I16" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>3</v>
       </c>
@@ -1200,8 +1254,19 @@
       <c r="I17" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>4</v>
       </c>
@@ -1226,8 +1291,19 @@
       <c r="I18" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="18">
         <v>5</v>
       </c>
@@ -1252,8 +1328,19 @@
       <c r="I19" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>6</v>
       </c>
@@ -1278,8 +1365,19 @@
       <c r="I20" s="5">
         <v>99999</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="19">
         <v>7</v>
       </c>
@@ -1305,12 +1403,12 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <v>1</v>
       </c>
@@ -1362,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>2</v>
       </c>
@@ -1388,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>3</v>
       </c>
@@ -1414,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>4</v>
       </c>
@@ -1440,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
         <v>5</v>
       </c>
@@ -1466,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="18">
         <v>6</v>
       </c>
@@ -1492,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="19">
         <v>7</v>
       </c>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E59AA6-8F34-4978-A83B-96FBF18C7CB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03417B6B-C304-49EC-9EF6-2F976C202CFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,20 +666,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S41"/>
+  <dimension ref="B2:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -735,15 +735,15 @@
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:R10" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
@@ -751,7 +751,7 @@
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
@@ -759,10 +759,10 @@
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -792,15 +792,15 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L10" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -812,14 +812,14 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>3</v>
       </c>
@@ -846,7 +846,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
@@ -854,15 +854,15 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
@@ -870,10 +870,10 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -900,11 +900,11 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
@@ -912,22 +912,22 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -954,11 +954,11 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
@@ -966,11 +966,11 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>6</v>
       </c>
@@ -1008,19 +1008,19 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
@@ -1028,14 +1028,14 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -1066,15 +1066,15 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
@@ -1082,43 +1082,22 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
@@ -1143,19 +1122,8 @@
       <c r="I14" s="22">
         <v>7</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f>L14*$M$13</f>
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f>L14*$N$13</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <v>1</v>
       </c>
@@ -1180,19 +1148,8 @@
       <c r="I15" s="12">
         <v>99999</v>
       </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15:M20" si="2">L15*$M$13</f>
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ref="N15:N20" si="3">L15*$N$13</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -1217,19 +1174,8 @@
       <c r="I16" s="5">
         <v>99999</v>
       </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>3</v>
       </c>
@@ -1254,19 +1200,8 @@
       <c r="I17" s="5">
         <v>99999</v>
       </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>4</v>
       </c>
@@ -1291,19 +1226,8 @@
       <c r="I18" s="5">
         <v>99999</v>
       </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="18">
         <v>5</v>
       </c>
@@ -1328,19 +1252,8 @@
       <c r="I19" s="5">
         <v>99999</v>
       </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>6</v>
       </c>
@@ -1365,19 +1278,8 @@
       <c r="I20" s="5">
         <v>99999</v>
       </c>
-      <c r="L20">
-        <v>7</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="19">
         <v>7</v>
       </c>
@@ -1403,12 +1305,12 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <v>1</v>
       </c>
@@ -1460,7 +1362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>2</v>
       </c>
@@ -1486,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>3</v>
       </c>
@@ -1512,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>4</v>
       </c>
@@ -1538,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
         <v>5</v>
       </c>
@@ -1564,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="18">
         <v>6</v>
       </c>
@@ -1590,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="19">
         <v>7</v>
       </c>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F440D8-9F6E-924F-B3B2-B79849599369}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7FC590-DCD6-4600-8246-F50402C7F8F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -115,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -347,11 +348,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +416,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,21 +701,21 @@
   <dimension ref="B2:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
@@ -729,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -757,41 +769,13 @@
       <c r="K4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:R10" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
-        <v>3</v>
+      <c r="C5" s="34">
+        <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>11</v>
@@ -814,41 +798,13 @@
       <c r="K5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L10" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
+      <c r="C6" s="34">
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <v>11</v>
@@ -868,41 +824,13 @@
       <c r="I6" s="5">
         <v>11</v>
       </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
+      <c r="C7" s="34">
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
@@ -922,41 +850,13 @@
       <c r="I7" s="5">
         <v>9</v>
       </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>5</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
+      <c r="C8" s="34">
+        <v>9</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
@@ -976,41 +876,13 @@
       <c r="I8" s="5">
         <v>11</v>
       </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
-        <v>3</v>
+      <c r="C9" s="34">
+        <v>11</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -1030,41 +902,13 @@
       <c r="I9" s="5">
         <v>9</v>
       </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
+      <c r="C10" s="35">
+        <v>9</v>
       </c>
       <c r="D10" s="6">
         <v>10</v>
@@ -1084,44 +928,16 @@
       <c r="I10" s="7">
         <v>9</v>
       </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="17">
         <v>1</v>
       </c>
@@ -1221,7 +1037,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -1271,7 +1087,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>3</v>
       </c>
@@ -1321,7 +1137,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>4</v>
       </c>
@@ -1371,7 +1187,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>5</v>
       </c>
@@ -1421,7 +1237,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <v>6</v>
       </c>
@@ -1471,7 +1287,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19">
         <v>7</v>
       </c>
@@ -1521,12 +1337,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
         <v>1</v>
       </c>
@@ -1578,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <v>2</v>
       </c>
@@ -1604,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>3</v>
       </c>
@@ -1630,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <v>4</v>
       </c>
@@ -1656,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <v>5</v>
       </c>
@@ -1682,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <v>6</v>
       </c>
@@ -1708,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
         <v>7</v>
       </c>
@@ -1734,12 +1550,12 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
         <v>1</v>
       </c>
@@ -1791,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
         <v>2</v>
       </c>
@@ -1817,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="18">
         <v>3</v>
       </c>
@@ -1843,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="18">
         <v>4</v>
       </c>
@@ -1869,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="18">
         <v>5</v>
       </c>
@@ -1895,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="18">
         <v>6</v>
       </c>
@@ -1921,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="19">
         <v>7</v>
       </c>
